--- a/res/RESULTS.xlsx
+++ b/res/RESULTS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\danil\IProjects\neuralmarkets\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amministratore\Documents\NetBeansProjects\neuralmarkets\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848D2D0E-BB9A-4E77-8711-F16F156BC0F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755636A7-7F5F-4A0F-9DE7-3700CB543575}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0D0AF00C-04A5-4C1B-9352-F1165BACEFDD}"/>
   </bookViews>
@@ -101,7 +101,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6DB01F-BF3A-4320-AC34-2D6F35B14F7A}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,107 +441,115 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3.7800000000000003E-4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4.35E-4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.0200000000000001E-3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3.1700000000000001E-4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3.8099999999999999E-4</v>
-      </c>
-    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>5.7700000000000004E-4</v>
+        <v>1.1900000000000001E-4</v>
       </c>
       <c r="C3" s="1">
-        <v>5.9299999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="D3" s="1">
-        <v>8.7500000000000002E-4</v>
+        <v>2.6199999999999999E-3</v>
       </c>
       <c r="E3" s="1">
-        <v>4.3100000000000001E-4</v>
+        <v>7.6499999999999995E-4</v>
       </c>
       <c r="F3" s="1">
-        <v>5.1999999999999995E-4</v>
+        <v>5.4799999999999998E-4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2.6</v>
-      </c>
-      <c r="C4">
-        <v>2.8</v>
-      </c>
-      <c r="D4">
-        <v>4.74</v>
-      </c>
-      <c r="E4">
-        <v>2.86</v>
-      </c>
-      <c r="F4">
-        <v>2.86</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6.6400000000000001E-5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.32E-3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.4800000000000001E-4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.2000000000000001E-4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>1.1900000000000001E-4</v>
+        <v>3.7800000000000003E-4</v>
       </c>
       <c r="C5" s="1">
-        <v>4.17E-4</v>
+        <v>4.35E-4</v>
       </c>
       <c r="D5" s="1">
-        <v>2.6199999999999999E-3</v>
+        <v>1.0200000000000001E-3</v>
       </c>
       <c r="E5" s="1">
-        <v>7.6499999999999995E-4</v>
+        <v>3.1700000000000001E-4</v>
       </c>
       <c r="F5" s="1">
-        <v>5.4799999999999998E-4</v>
+        <v>3.8099999999999999E-4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>6.6400000000000001E-5</v>
+        <v>5.7700000000000004E-4</v>
       </c>
       <c r="C6" s="1">
-        <v>1.3500000000000001E-3</v>
+        <v>5.9299999999999999E-4</v>
       </c>
       <c r="D6" s="1">
-        <v>1.32E-3</v>
+        <v>8.7500000000000002E-4</v>
       </c>
       <c r="E6" s="1">
-        <v>2.4800000000000001E-4</v>
+        <v>4.3100000000000001E-4</v>
       </c>
       <c r="F6" s="1">
-        <v>2.2000000000000001E-4</v>
-      </c>
+        <v>5.1999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2.6</v>
+      </c>
+      <c r="C7">
+        <v>2.8</v>
+      </c>
+      <c r="D7">
+        <v>4.74</v>
+      </c>
+      <c r="E7">
+        <v>2.86</v>
+      </c>
+      <c r="F7">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>